--- a/tempi maps sampling order spettrali track.xlsx
+++ b/tempi maps sampling order spettrali track.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Giuseppe Antonelli\Desktop\tesi\Optmised-sampling\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FDEF625-C6E7-4D66-A235-37642363CA59}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B32C84B-3251-4A63-8156-5B49C39317D2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="16">
   <si>
     <t>plot1</t>
   </si>
@@ -79,6 +79,9 @@
   </si>
   <si>
     <t>media</t>
+  </si>
+  <si>
+    <t>a tratta</t>
   </si>
 </sst>
 </file>
@@ -97,7 +100,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -118,13 +121,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -141,17 +150,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -432,52 +444,52 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N15"/>
+  <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+      <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="5">
-        <v>2</v>
-      </c>
-      <c r="C1" s="5">
-        <v>3</v>
-      </c>
-      <c r="D1" s="5">
-        <v>4</v>
-      </c>
-      <c r="E1" s="5">
-        <v>5</v>
-      </c>
-      <c r="F1" s="5">
-        <v>6</v>
-      </c>
-      <c r="G1" s="5">
-        <v>7</v>
-      </c>
-      <c r="H1" s="5">
-        <v>8</v>
-      </c>
-      <c r="I1" s="5">
-        <v>9</v>
-      </c>
-      <c r="J1" s="5">
-        <v>10</v>
-      </c>
-      <c r="K1" s="5">
-        <v>11</v>
-      </c>
-      <c r="L1" s="5">
+      <c r="B1" s="4">
+        <v>2</v>
+      </c>
+      <c r="C1" s="4">
+        <v>3</v>
+      </c>
+      <c r="D1" s="4">
+        <v>4</v>
+      </c>
+      <c r="E1" s="4">
+        <v>5</v>
+      </c>
+      <c r="F1" s="4">
+        <v>6</v>
+      </c>
+      <c r="G1" s="4">
+        <v>7</v>
+      </c>
+      <c r="H1" s="4">
+        <v>8</v>
+      </c>
+      <c r="I1" s="4">
+        <v>9</v>
+      </c>
+      <c r="J1" s="4">
+        <v>10</v>
+      </c>
+      <c r="K1" s="4">
+        <v>11</v>
+      </c>
+      <c r="L1" s="4">
         <v>12</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="M1" s="7" t="s">
         <v>13</v>
       </c>
     </row>
@@ -518,7 +530,7 @@
       <c r="L2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="M2" s="7">
+      <c r="M2" s="5">
         <v>0.28472222222222221</v>
       </c>
     </row>
@@ -985,6 +997,15 @@
       </c>
       <c r="N15" t="s">
         <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="M16" s="8">
+        <f>M15/11</f>
+        <v>2.3016624579124581E-2</v>
+      </c>
+      <c r="N16" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
